--- a/FME_fmw_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>original_value</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,17 +680,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
